--- a/2 semester/LogicBase/WorkSpace/Lab5/Calc Ivan.xlsx
+++ b/2 semester/LogicBase/WorkSpace/Lab5/Calc Ivan.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A746BBEB-D386-47D5-9DE1-166604AAA57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C2A201-5CD2-420E-A26C-0F52FF2736FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -553,6 +553,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -568,35 +583,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -939,7 +939,7 @@
   <dimension ref="A1:BL76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="AK30" sqref="AK30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,44 +976,44 @@
       <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55" t="s">
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="Q1" s="53" t="s">
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="Q1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
     </row>
     <row r="2" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1022,28 +1022,28 @@
       <c r="B2" s="9">
         <v>20612</v>
       </c>
-      <c r="C2" s="61">
+      <c r="C2" s="51">
         <v>5084</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55" t="s">
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55" t="s">
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="Q2" s="59" t="s">
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="Q2" s="64" t="s">
         <v>4</v>
       </c>
       <c r="R2" s="42"/>
@@ -1095,8 +1095,8 @@
       <c r="AH2" s="35">
         <v>0</v>
       </c>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="64"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1108,25 +1108,25 @@
       <c r="C3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55" t="s">
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55" t="s">
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="Q3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="Q3" s="65"/>
       <c r="R3" s="43"/>
       <c r="S3" s="30">
         <v>0</v>
@@ -1176,7 +1176,7 @@
       <c r="AH3" s="36">
         <v>0</v>
       </c>
-      <c r="AM3" s="65" t="s">
+      <c r="AM3" s="55" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1190,24 +1190,24 @@
       <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55" t="s">
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55" t="s">
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
       <c r="Q4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1265,65 +1265,65 @@
       <c r="B5" s="10"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="45"/>
-      <c r="S5" s="51" t="s">
+      <c r="S5" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="T5" s="52"/>
-      <c r="U5" s="52"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
       <c r="V5" s="3">
-        <v>0</v>
-      </c>
-      <c r="W5" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="W5" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="X5" s="52"/>
-      <c r="Y5" s="52"/>
+      <c r="X5" s="57"/>
+      <c r="Y5" s="57"/>
       <c r="Z5" s="3">
         <v>0</v>
       </c>
-      <c r="AA5" s="51" t="s">
+      <c r="AA5" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="AB5" s="52"/>
-      <c r="AC5" s="52"/>
+      <c r="AB5" s="57"/>
+      <c r="AC5" s="57"/>
       <c r="AD5" s="3">
         <v>1</v>
       </c>
-      <c r="AE5" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="52"/>
-      <c r="AG5" s="52"/>
+      <c r="AE5" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="57"/>
+      <c r="AG5" s="57"/>
       <c r="AH5" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="G7" s="62"/>
-      <c r="O7" s="63"/>
-      <c r="Q7" s="53" t="s">
+      <c r="G7" s="52"/>
+      <c r="O7" s="53"/>
+      <c r="Q7" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="53"/>
-      <c r="X7" s="53"/>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="53"/>
-      <c r="AB7" s="53"/>
-      <c r="AC7" s="53"/>
-      <c r="AD7" s="53"/>
-      <c r="AE7" s="53"/>
-      <c r="AF7" s="53"/>
-      <c r="AG7" s="53"/>
-      <c r="AH7" s="53"/>
+      <c r="R7" s="58"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
+      <c r="AB7" s="58"/>
+      <c r="AC7" s="58"/>
+      <c r="AD7" s="58"/>
+      <c r="AE7" s="58"/>
+      <c r="AF7" s="58"/>
+      <c r="AG7" s="58"/>
+      <c r="AH7" s="58"/>
     </row>
     <row r="8" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q8" s="54" t="s">
+      <c r="Q8" s="59" t="s">
         <v>4</v>
       </c>
       <c r="R8" s="42"/>
@@ -1375,27 +1375,27 @@
       <c r="AH8" s="35">
         <v>0</v>
       </c>
-      <c r="AK8" s="55" t="s">
+      <c r="AK8" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="AL8" s="55"/>
-      <c r="AM8" s="55"/>
-      <c r="AN8" s="55"/>
-      <c r="AO8" s="55"/>
-      <c r="AP8" s="55" t="s">
+      <c r="AL8" s="60"/>
+      <c r="AM8" s="60"/>
+      <c r="AN8" s="60"/>
+      <c r="AO8" s="60"/>
+      <c r="AP8" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="AQ8" s="55"/>
-      <c r="AR8" s="55"/>
-      <c r="AS8" s="55"/>
-      <c r="AT8" s="55"/>
-      <c r="AU8" s="55" t="s">
+      <c r="AQ8" s="60"/>
+      <c r="AR8" s="60"/>
+      <c r="AS8" s="60"/>
+      <c r="AT8" s="60"/>
+      <c r="AU8" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="AV8" s="55"/>
+      <c r="AV8" s="60"/>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="Q9" s="54"/>
+      <c r="Q9" s="59"/>
       <c r="R9" s="43"/>
       <c r="S9" s="30">
         <v>1</v>
@@ -1448,24 +1448,24 @@
       <c r="AJ9" t="s">
         <v>5</v>
       </c>
-      <c r="AK9" s="55" t="s">
+      <c r="AK9" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="AL9" s="55"/>
-      <c r="AM9" s="55"/>
-      <c r="AN9" s="55"/>
-      <c r="AO9" s="55"/>
-      <c r="AP9" s="55" t="s">
+      <c r="AL9" s="60"/>
+      <c r="AM9" s="60"/>
+      <c r="AN9" s="60"/>
+      <c r="AO9" s="60"/>
+      <c r="AP9" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="AQ9" s="55"/>
-      <c r="AR9" s="55"/>
-      <c r="AS9" s="55"/>
-      <c r="AT9" s="55"/>
-      <c r="AU9" s="58" t="s">
+      <c r="AQ9" s="60"/>
+      <c r="AR9" s="60"/>
+      <c r="AS9" s="60"/>
+      <c r="AT9" s="60"/>
+      <c r="AU9" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="AV9" s="55"/>
+      <c r="AV9" s="60"/>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="Q10" s="40" t="s">
@@ -1493,28 +1493,28 @@
       <c r="AJ10" t="s">
         <v>9</v>
       </c>
-      <c r="AK10" s="56" t="s">
+      <c r="AK10" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="AL10" s="56"/>
-      <c r="AM10" s="56"/>
-      <c r="AN10" s="56"/>
+      <c r="AL10" s="62"/>
+      <c r="AM10" s="62"/>
+      <c r="AN10" s="62"/>
       <c r="AO10" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="AP10" s="57" t="s">
+      <c r="AP10" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="AQ10" s="57"/>
-      <c r="AR10" s="57"/>
-      <c r="AS10" s="57"/>
+      <c r="AQ10" s="63"/>
+      <c r="AR10" s="63"/>
+      <c r="AS10" s="63"/>
       <c r="AT10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AU10" s="56" t="s">
+      <c r="AU10" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="AV10" s="56"/>
+      <c r="AV10" s="62"/>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="Q11" s="4" t="s">
@@ -1579,35 +1579,35 @@
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="45"/>
-      <c r="S12" s="51" t="s">
+      <c r="S12" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="T12" s="52"/>
-      <c r="U12" s="52"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
       <c r="V12" s="3">
         <v>1</v>
       </c>
-      <c r="W12" s="51" t="s">
+      <c r="W12" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="X12" s="52"/>
-      <c r="Y12" s="52"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="57"/>
       <c r="Z12" s="3">
         <v>0</v>
       </c>
-      <c r="AA12" s="51" t="s">
+      <c r="AA12" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="AB12" s="52"/>
-      <c r="AC12" s="52"/>
+      <c r="AB12" s="57"/>
+      <c r="AC12" s="57"/>
       <c r="AD12" s="3">
         <v>0</v>
       </c>
-      <c r="AE12" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF12" s="52"/>
-      <c r="AG12" s="52"/>
+      <c r="AE12" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="57"/>
+      <c r="AG12" s="57"/>
       <c r="AH12" s="41">
         <v>0</v>
       </c>
@@ -1664,33 +1664,33 @@
       <c r="D15" s="7">
         <v>5</v>
       </c>
-      <c r="Q15" s="53" t="s">
+      <c r="Q15" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="R15" s="53"/>
-      <c r="S15" s="53"/>
-      <c r="T15" s="53"/>
-      <c r="U15" s="53"/>
-      <c r="V15" s="53"/>
-      <c r="W15" s="53"/>
-      <c r="X15" s="53"/>
-      <c r="Y15" s="53"/>
-      <c r="Z15" s="53"/>
-      <c r="AA15" s="53"/>
-      <c r="AB15" s="53"/>
-      <c r="AC15" s="53"/>
-      <c r="AD15" s="53"/>
-      <c r="AE15" s="53"/>
-      <c r="AF15" s="53"/>
-      <c r="AG15" s="53"/>
-      <c r="AH15" s="53"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="58"/>
+      <c r="AC15" s="58"/>
+      <c r="AD15" s="58"/>
+      <c r="AE15" s="58"/>
+      <c r="AF15" s="58"/>
+      <c r="AG15" s="58"/>
+      <c r="AH15" s="58"/>
     </row>
     <row r="16" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="8">
         <v>0</v>
       </c>
       <c r="D16" s="7"/>
-      <c r="Q16" s="54" t="s">
+      <c r="Q16" s="59" t="s">
         <v>24</v>
       </c>
       <c r="R16" s="42"/>
@@ -1744,7 +1744,7 @@
       </c>
     </row>
     <row r="17" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="Q17" s="54"/>
+      <c r="Q17" s="59"/>
       <c r="R17" s="43"/>
       <c r="S17" s="30">
         <v>1</v>
@@ -1810,13 +1810,13 @@
         <v>1</v>
       </c>
       <c r="S18" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" s="32">
         <v>1</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Z18" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18" s="33">
         <v>0</v>
@@ -1840,13 +1840,13 @@
         <v>1</v>
       </c>
       <c r="AC18" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD18" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF18" s="32">
         <v>0</v>
@@ -1870,35 +1870,35 @@
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="45"/>
-      <c r="S19" s="51" t="s">
+      <c r="S19" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="T19" s="52"/>
-      <c r="U19" s="52"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="57"/>
       <c r="V19" s="3">
         <v>0</v>
       </c>
-      <c r="W19" s="51" t="s">
+      <c r="W19" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="X19" s="52"/>
-      <c r="Y19" s="52"/>
+      <c r="X19" s="57"/>
+      <c r="Y19" s="57"/>
       <c r="Z19" s="3">
         <v>1</v>
       </c>
-      <c r="AA19" s="51" t="s">
+      <c r="AA19" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="AB19" s="52"/>
-      <c r="AC19" s="52"/>
+      <c r="AB19" s="57"/>
+      <c r="AC19" s="57"/>
       <c r="AD19" s="3">
         <v>1</v>
       </c>
-      <c r="AE19" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF19" s="52"/>
-      <c r="AG19" s="52"/>
+      <c r="AE19" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="57"/>
+      <c r="AG19" s="57"/>
       <c r="AH19" s="41">
         <v>0</v>
       </c>
@@ -1927,50 +1927,50 @@
       <c r="D21">
         <v>8</v>
       </c>
-      <c r="Q21" s="53" t="s">
+      <c r="Q21" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="R21" s="53"/>
-      <c r="S21" s="53"/>
-      <c r="T21" s="53"/>
-      <c r="U21" s="53"/>
-      <c r="V21" s="53"/>
-      <c r="W21" s="53"/>
-      <c r="X21" s="53"/>
-      <c r="Y21" s="53"/>
-      <c r="Z21" s="53"/>
-      <c r="AA21" s="53"/>
-      <c r="AB21" s="53"/>
-      <c r="AC21" s="53"/>
-      <c r="AD21" s="53"/>
-      <c r="AE21" s="53"/>
-      <c r="AF21" s="53"/>
-      <c r="AG21" s="53"/>
-      <c r="AH21" s="53"/>
-      <c r="AK21" s="55" t="s">
+      <c r="R21" s="58"/>
+      <c r="S21" s="58"/>
+      <c r="T21" s="58"/>
+      <c r="U21" s="58"/>
+      <c r="V21" s="58"/>
+      <c r="W21" s="58"/>
+      <c r="X21" s="58"/>
+      <c r="Y21" s="58"/>
+      <c r="Z21" s="58"/>
+      <c r="AA21" s="58"/>
+      <c r="AB21" s="58"/>
+      <c r="AC21" s="58"/>
+      <c r="AD21" s="58"/>
+      <c r="AE21" s="58"/>
+      <c r="AF21" s="58"/>
+      <c r="AG21" s="58"/>
+      <c r="AH21" s="58"/>
+      <c r="AK21" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="AL21" s="55"/>
-      <c r="AM21" s="55"/>
-      <c r="AN21" s="55"/>
-      <c r="AO21" s="55"/>
-      <c r="AP21" s="55" t="s">
+      <c r="AL21" s="60"/>
+      <c r="AM21" s="60"/>
+      <c r="AN21" s="60"/>
+      <c r="AO21" s="60"/>
+      <c r="AP21" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="AQ21" s="55"/>
-      <c r="AR21" s="55"/>
-      <c r="AS21" s="55"/>
-      <c r="AT21" s="55"/>
-      <c r="AU21" s="55" t="s">
+      <c r="AQ21" s="60"/>
+      <c r="AR21" s="60"/>
+      <c r="AS21" s="60"/>
+      <c r="AT21" s="60"/>
+      <c r="AU21" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="AV21" s="55"/>
+      <c r="AV21" s="60"/>
     </row>
     <row r="22" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="5">
         <v>4</v>
       </c>
-      <c r="Q22" s="54" t="s">
+      <c r="Q22" s="59" t="s">
         <v>25</v>
       </c>
       <c r="R22" s="42"/>
@@ -2025,27 +2025,27 @@
       <c r="AJ22" t="s">
         <v>5</v>
       </c>
-      <c r="AK22" s="55" t="s">
+      <c r="AK22" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="AL22" s="55"/>
-      <c r="AM22" s="55"/>
-      <c r="AN22" s="55"/>
-      <c r="AO22" s="55"/>
-      <c r="AP22" s="55" t="s">
+      <c r="AL22" s="60"/>
+      <c r="AM22" s="60"/>
+      <c r="AN22" s="60"/>
+      <c r="AO22" s="60"/>
+      <c r="AP22" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="AQ22" s="55"/>
-      <c r="AR22" s="55"/>
-      <c r="AS22" s="55"/>
-      <c r="AT22" s="55"/>
-      <c r="AU22" s="55" t="s">
+      <c r="AQ22" s="60"/>
+      <c r="AR22" s="60"/>
+      <c r="AS22" s="60"/>
+      <c r="AT22" s="60"/>
+      <c r="AU22" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="AV22" s="55"/>
+      <c r="AV22" s="60"/>
     </row>
     <row r="23" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="Q23" s="54"/>
+      <c r="Q23" s="59"/>
       <c r="R23" s="43"/>
       <c r="S23" s="30">
         <v>0</v>
@@ -2098,28 +2098,28 @@
       <c r="AJ23" t="s">
         <v>9</v>
       </c>
-      <c r="AK23" s="56" t="s">
+      <c r="AK23" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="AL23" s="56"/>
-      <c r="AM23" s="56"/>
-      <c r="AN23" s="56"/>
+      <c r="AL23" s="62"/>
+      <c r="AM23" s="62"/>
+      <c r="AN23" s="62"/>
       <c r="AO23" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AP23" s="56" t="s">
+      <c r="AP23" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="AQ23" s="57"/>
-      <c r="AR23" s="57"/>
-      <c r="AS23" s="57"/>
+      <c r="AQ23" s="63"/>
+      <c r="AR23" s="63"/>
+      <c r="AS23" s="63"/>
       <c r="AT23" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="AU23" s="56" t="s">
+      <c r="AU23" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="AV23" s="56"/>
+      <c r="AV23" s="62"/>
     </row>
     <row r="24" spans="1:64" x14ac:dyDescent="0.25">
       <c r="Q24" s="40" t="s">
@@ -2142,7 +2142,7 @@
       <c r="AF24" s="47"/>
       <c r="AG24" s="47"/>
       <c r="AH24" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA24" s="24"/>
       <c r="BB24" s="24"/>
@@ -2214,35 +2214,35 @@
     <row r="26" spans="1:64" x14ac:dyDescent="0.25">
       <c r="Q26" s="2"/>
       <c r="R26" s="45"/>
-      <c r="S26" s="51" t="s">
+      <c r="S26" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="T26" s="52"/>
-      <c r="U26" s="52"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="57"/>
       <c r="V26" s="3">
         <v>1</v>
       </c>
-      <c r="W26" s="51" t="s">
+      <c r="W26" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="X26" s="52"/>
-      <c r="Y26" s="52"/>
+      <c r="X26" s="57"/>
+      <c r="Y26" s="57"/>
       <c r="Z26" s="3">
         <v>0</v>
       </c>
-      <c r="AA26" s="51" t="s">
+      <c r="AA26" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="AB26" s="52"/>
-      <c r="AC26" s="52"/>
+      <c r="AB26" s="57"/>
+      <c r="AC26" s="57"/>
       <c r="AD26" s="3">
         <v>0</v>
       </c>
-      <c r="AE26" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF26" s="52"/>
-      <c r="AG26" s="52"/>
+      <c r="AE26" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF26" s="57"/>
+      <c r="AG26" s="57"/>
       <c r="AH26" s="41">
         <v>0</v>
       </c>
@@ -3184,6 +3184,12 @@
     <mergeCell ref="AA19:AC19"/>
     <mergeCell ref="AE19:AG19"/>
     <mergeCell ref="AK23:AN23"/>
+    <mergeCell ref="AK21:AO21"/>
+    <mergeCell ref="AP21:AT21"/>
+    <mergeCell ref="AU21:AV21"/>
+    <mergeCell ref="AK22:AO22"/>
+    <mergeCell ref="AP22:AT22"/>
+    <mergeCell ref="AU22:AV22"/>
     <mergeCell ref="Q1:AH1"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="D2:G2"/>
@@ -3191,6 +3197,9 @@
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:O3"/>
     <mergeCell ref="AU10:AV10"/>
     <mergeCell ref="AK9:AO9"/>
     <mergeCell ref="AK8:AO8"/>
@@ -3198,33 +3207,24 @@
     <mergeCell ref="AU8:AV8"/>
     <mergeCell ref="AP9:AT9"/>
     <mergeCell ref="AU9:AV9"/>
+    <mergeCell ref="AP10:AS10"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="AK10:AN10"/>
     <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="Q7:AH7"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="W5:Y5"/>
     <mergeCell ref="AA5:AC5"/>
     <mergeCell ref="AE5:AG5"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="AK10:AN10"/>
-    <mergeCell ref="AP10:AS10"/>
     <mergeCell ref="Q15:AH15"/>
     <mergeCell ref="Q16:Q17"/>
     <mergeCell ref="S12:U12"/>
     <mergeCell ref="W12:Y12"/>
     <mergeCell ref="AA12:AC12"/>
     <mergeCell ref="AE12:AG12"/>
-    <mergeCell ref="AK21:AO21"/>
-    <mergeCell ref="AP21:AT21"/>
-    <mergeCell ref="AU21:AV21"/>
-    <mergeCell ref="AK22:AO22"/>
-    <mergeCell ref="AP22:AT22"/>
-    <mergeCell ref="AU22:AV22"/>
     <mergeCell ref="S26:U26"/>
     <mergeCell ref="W26:Y26"/>
     <mergeCell ref="AA26:AC26"/>
